--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p16_data.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p16_data.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3645,6 +3645,9 @@
       <c r="A142">
         <v>16</v>
       </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
       <c r="C142">
         <v>9</v>
       </c>
@@ -3654,13 +3657,19 @@
       <c r="E142">
         <v>0.5</v>
       </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
         <v>16</v>
       </c>
       <c r="B143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143">
         <v>-15</v>
@@ -3672,10 +3681,10 @@
         <v>0.5</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0.7968627</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3683,7 +3692,7 @@
         <v>16</v>
       </c>
       <c r="B144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3695,10 +3704,10 @@
         <v>0.25</v>
       </c>
       <c r="F144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.7968627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3706,7 +3715,7 @@
         <v>16</v>
       </c>
       <c r="B145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -3718,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3729,7 +3738,7 @@
         <v>16</v>
       </c>
       <c r="B146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -3744,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0.1950042</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3752,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="B147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>-15</v>
@@ -3764,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G147">
-        <v>0.1950042</v>
+        <v>0.9218271</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3775,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="B148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3787,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0.9218271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3798,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -3810,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -3821,7 +3830,7 @@
         <v>16</v>
       </c>
       <c r="B150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150">
         <v>-15</v>
@@ -3833,10 +3842,10 @@
         <v>0.25</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3844,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="B151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>-15</v>
@@ -3856,10 +3865,10 @@
         <v>0.5</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.6484309</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3867,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="B152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -3879,10 +3888,10 @@
         <v>0.25</v>
       </c>
       <c r="F152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G152">
-        <v>0.6484309</v>
+        <v>0.2702366</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3890,7 +3899,7 @@
         <v>16</v>
       </c>
       <c r="B153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>-15</v>
@@ -3902,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G153">
-        <v>0.2702366</v>
+        <v>0.1685711</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3913,7 +3922,7 @@
         <v>16</v>
       </c>
       <c r="B154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>9</v>
@@ -3925,10 +3934,10 @@
         <v>0.25</v>
       </c>
       <c r="F154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>0.1685711</v>
+        <v>0.2539699</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3936,7 +3945,7 @@
         <v>16</v>
       </c>
       <c r="B155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -3951,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <v>0.2539699</v>
+        <v>0.8578616999999999</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3959,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="B156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>-15</v>
@@ -3971,10 +3980,10 @@
         <v>0.25</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G156">
-        <v>0.8578616999999999</v>
+        <v>0.2966696</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3982,7 +3991,7 @@
         <v>16</v>
       </c>
       <c r="B157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>9</v>
@@ -3994,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0.2966696</v>
+        <v>0.8842947</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4005,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="B158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>-15</v>
@@ -4017,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G158">
-        <v>0.8842947</v>
+        <v>0.2275373</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4028,7 +4037,7 @@
         <v>16</v>
       </c>
       <c r="B159">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4040,10 +4049,10 @@
         <v>0.75</v>
       </c>
       <c r="F159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>0.2275373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4051,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="B160">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160">
         <v>-15</v>
@@ -4066,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0.5894652</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4074,7 +4083,7 @@
         <v>16</v>
       </c>
       <c r="B161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161">
         <v>9</v>
@@ -4086,10 +4095,10 @@
         <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>0.5894652</v>
+        <v>0.5894653</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4097,7 +4106,7 @@
         <v>16</v>
       </c>
       <c r="B162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162">
         <v>-15</v>
@@ -4109,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G162">
-        <v>0.5894653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4120,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="B163">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163">
         <v>9</v>
@@ -4132,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0.2255039</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4143,7 +4152,7 @@
         <v>16</v>
       </c>
       <c r="B164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4155,10 +4164,10 @@
         <v>0.75</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.2255039</v>
+        <v>0.9452937</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4166,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="B165">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -4178,10 +4187,10 @@
         <v>0.75</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>0.9452937</v>
+        <v>0.9615609000000001</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4189,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="B166">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4201,10 +4210,10 @@
         <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.9615609000000001</v>
+        <v>0.6972303</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4212,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="B167">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -4224,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>0.6972303</v>
+        <v>0.319036</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4235,7 +4244,7 @@
         <v>16</v>
       </c>
       <c r="B168">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4247,10 +4256,10 @@
         <v>0.5</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0.319036</v>
+        <v>0.7378967</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4258,7 +4267,7 @@
         <v>16</v>
       </c>
       <c r="B169">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4273,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.7378967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4281,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="B170">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4296,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0.2051709</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4304,7 +4313,7 @@
         <v>16</v>
       </c>
       <c r="B171">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171">
         <v>9</v>
@@ -4316,10 +4325,10 @@
         <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>0.2051709</v>
+        <v>0.9676601</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4327,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="B172">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4339,10 +4348,10 @@
         <v>0.75</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.9676601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4350,7 +4359,7 @@
         <v>16</v>
       </c>
       <c r="B173">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4365,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0.9778268</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4373,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="B174">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174">
         <v>-15</v>
@@ -4385,10 +4394,10 @@
         <v>0.5</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G174">
-        <v>0.9778268</v>
+        <v>0.8273624000000001</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4396,7 +4405,7 @@
         <v>16</v>
       </c>
       <c r="B175">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4408,10 +4417,10 @@
         <v>0.25</v>
       </c>
       <c r="F175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>0.8273624000000001</v>
+        <v>0.2011043</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4419,7 +4428,7 @@
         <v>16</v>
       </c>
       <c r="B176">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.2011043</v>
+        <v>0.9269941</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4442,7 +4451,7 @@
         <v>16</v>
       </c>
       <c r="B177">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177">
         <v>9</v>
@@ -4454,10 +4463,10 @@
         <v>0.75</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0.9269941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4465,7 +4474,7 @@
         <v>16</v>
       </c>
       <c r="B178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178">
         <v>-15</v>
@@ -4477,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -4488,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="B179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179">
         <v>-15</v>
@@ -4503,7 +4512,7 @@
         <v>-1</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0.2223705</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4511,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="B180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180">
         <v>-15</v>
@@ -4526,7 +4535,7 @@
         <v>-1</v>
       </c>
       <c r="G180">
-        <v>0.2223705</v>
+        <v>0.2438036</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4534,7 +4543,7 @@
         <v>16</v>
       </c>
       <c r="B181">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4546,20 +4555,9 @@
         <v>0.5</v>
       </c>
       <c r="F181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>0.2438036</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="B182">
-        <v>180</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
         <v>0.5243997</v>
       </c>
     </row>
